--- a/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1256,37%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,5; 2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 4,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,24; 5,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,98; 15,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,82; 77,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,47; 279,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,87; 136,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 1,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 1,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 6,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 0,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,63; 41,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,05; 20,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,59; 160,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,37; 16,38</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,69%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; 0,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 2,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 4,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,24; 9,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,77; 43,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,36; 30,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 75,5</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,57%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 2,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; -0,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 2,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 1,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,27; 34,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,18; -0,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,65; 51,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,0; 23,94</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 3,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 1,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 3,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 59,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,37; 19,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,4; 39,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,64; 51,71</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 0,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 1,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,35; 11,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,06; 3,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 28,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 32,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-46,17%</t>
+          <t>-23,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-14,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1256,37%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 2,13</t>
+          <t>-3,67; 0,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 4,49</t>
+          <t>-4,53; 1,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 5,68</t>
+          <t>-0,13; 5,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 15,58</t>
+          <t>-1,82; 2,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,82; 77,12</t>
+          <t>-55,05; 25,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-86,47; 279,58</t>
+          <t>-37,35; 22,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,87; 136,45</t>
+          <t>-1,6; 122,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,87; 60,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,26%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,1%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,29%</t>
+          <t>46,39%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,51</t>
+          <t>-4,23; 0,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 1,76</t>
+          <t>-2,26; 2,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 6,79</t>
+          <t>-2,68; 2,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,83</t>
+          <t>0,19; 6,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 41,77</t>
+          <t>-46,24; 9,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 20,92</t>
+          <t>-25,77; 43,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 160,07</t>
+          <t>-28,36; 30,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 16,38</t>
+          <t>0,99; 192,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>-29,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>-30,62%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,6</t>
+          <t>-3,49; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,68</t>
+          <t>-6,57; -0,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,19</t>
+          <t>-2,56; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,3</t>
+          <t>-5,67; 0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 9,96</t>
+          <t>-40,27; 34,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 43,3</t>
+          <t>-49,18; -0,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 30,97</t>
+          <t>-30,65; 51,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 75,5</t>
+          <t>-68,22; 9,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,11%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,03</t>
+          <t>-1,33; 3,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,23</t>
+          <t>-3,75; 1,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,87</t>
+          <t>-2,34; 2,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,35</t>
+          <t>-2,28; 2,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 34,96</t>
+          <t>-15,53; 59,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -0,93</t>
+          <t>-32,37; 19,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 51,01</t>
+          <t>-23,4; 39,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 23,94</t>
+          <t>-25,02; 42,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,76%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,54</t>
+          <t>-1,73; 0,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,69</t>
+          <t>-2,57; 0,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,94</t>
+          <t>-0,78; 1,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,24</t>
+          <t>-1,17; 2,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 59,89</t>
+          <t>-22,35; 11,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 19,18</t>
+          <t>-25,06; 3,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 39,09</t>
+          <t>-8,98; 28,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 51,71</t>
+          <t>-15,29; 41,87</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,19%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-11,92%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 0,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 0,27</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 1,98</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 1,97</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-22,35; 11,24</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-25,06; 3,2</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 28,57</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 32,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,93</t>
+          <t>-3,51; 0,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,76</t>
+          <t>-4,49; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,51</t>
+          <t>-0,08; 5,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,75</t>
+          <t>-1,82; 3,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,05; 25,6</t>
+          <t>-52,98; 22,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 22,16</t>
+          <t>-39,1; 22,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 122,94</t>
+          <t>-2,9; 107,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 60,61</t>
+          <t>-25,4; 72,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,6</t>
+          <t>-4,13; 0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,68</t>
+          <t>-2,09; 2,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,19</t>
+          <t>-2,94; 2,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,73</t>
+          <t>0,09; 6,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 9,96</t>
+          <t>-45,75; 11,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 43,3</t>
+          <t>-25,57; 44,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 30,97</t>
+          <t>-29,06; 31,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 192,73</t>
+          <t>0,0; 184,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,03</t>
+          <t>-3,23; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,23</t>
+          <t>-6,43; -0,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,87</t>
+          <t>-2,39; 2,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,62</t>
+          <t>-5,68; 0,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 34,96</t>
+          <t>-38,45; 36,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -0,93</t>
+          <t>-49,44; -0,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 51,01</t>
+          <t>-29,09; 51,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,22; 9,98</t>
+          <t>-70,76; 7,12</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,54</t>
+          <t>-1,05; 3,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,69</t>
+          <t>-3,67; 1,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,94</t>
+          <t>-2,15; 3,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,78</t>
+          <t>-2,44; 2,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 59,89</t>
+          <t>-13,43; 56,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 19,18</t>
+          <t>-32,16; 20,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 39,09</t>
+          <t>-22,11; 39,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 42,95</t>
+          <t>-25,76; 44,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,69</t>
+          <t>-1,75; 0,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,27</t>
+          <t>-2,66; 0,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,98</t>
+          <t>-0,68; 1,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,24</t>
+          <t>-1,14; 2,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 11,24</t>
+          <t>-23,42; 11,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 3,2</t>
+          <t>-25,51; 3,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 28,57</t>
+          <t>-8,04; 28,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 41,87</t>
+          <t>-14,76; 40,2</t>
         </is>
       </c>
     </row>
